--- a/Analyzed/raw/data_2014.xlsx
+++ b/Analyzed/raw/data_2014.xlsx
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>6</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -558,7 +558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B3">
@@ -582,29 +582,53 @@
       <c r="H3">
         <v>0.619</v>
       </c>
+      <c r="I3">
+        <v>53.38</v>
+      </c>
+      <c r="J3">
+        <v>2847</v>
+      </c>
+      <c r="K3">
+        <v>1705.345</v>
+      </c>
+      <c r="L3">
+        <v>826</v>
+      </c>
+      <c r="M3">
+        <v>55.592848472924</v>
+      </c>
+      <c r="N3">
+        <v>138.8</v>
+      </c>
+      <c r="O3">
+        <v>939.1900000000001</v>
+      </c>
+      <c r="P3">
+        <v>2783</v>
+      </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>7</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -662,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>5</v>
@@ -677,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -738,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -814,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -890,19 +914,19 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -966,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -1042,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>6</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1057,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1118,25 +1142,25 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>8</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
